--- a/Jiyoung/queries/2017-06-24/2017-06-24_주문내역.xlsx
+++ b/Jiyoung/queries/2017-06-24/2017-06-24_주문내역.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Steven/Documents/Workspaces/BreadOrder/Jiyoung/queries/2017-06-17/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Steven/Documents/Workspaces/BreadOrder/Jiyoung/queries/2017-06-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2000" yWindow="4060" windowWidth="33600" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -90,6 +90,72 @@
     <t>박미정:염둥이</t>
   </si>
   <si>
+    <t>0400 098 009:두이엄마</t>
+  </si>
+  <si>
+    <t>0423 391 661</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0430 570 255</t>
+  </si>
+  <si>
+    <t>Min Kim</t>
+  </si>
+  <si>
+    <t>미멜에 라일락(0452 452 844)</t>
+  </si>
+  <si>
+    <t>선영</t>
+  </si>
+  <si>
+    <t>유원공주</t>
+  </si>
+  <si>
+    <t>조엘(0433 371 655)</t>
+  </si>
+  <si>
+    <t>Soyoung(0450 505 214)</t>
+  </si>
+  <si>
+    <t>은주</t>
+  </si>
+  <si>
+    <t>** 배달:3/135 High St Doncaster VIC 3108</t>
+  </si>
+  <si>
+    <t>** 배달:163 City Rd Southbank VIC 3006</t>
+  </si>
+  <si>
+    <t>김영아</t>
+  </si>
+  <si>
+    <t>Young Su</t>
+  </si>
+  <si>
+    <t>** 배달 : South Morang</t>
+  </si>
+  <si>
+    <t>** 배달:8 Callan Ct, Mill Park VIC 3082</t>
+  </si>
+  <si>
+    <t>박미용1</t>
+  </si>
+  <si>
+    <t>박미용2</t>
+  </si>
+  <si>
+    <t>박미용3</t>
+  </si>
+  <si>
+    <t>2017-06-17일 개인별 주문내역</t>
+  </si>
+  <si>
+    <t>2017-06-24일 주문</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -97,7 +163,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>10:30 ~ 11:00</t>
+      <t xml:space="preserve">11:00 ~ </t>
     </r>
     <r>
       <rPr>
@@ -107,74 +173,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  6 John St Box Hill VIC 3128</t>
+      <t xml:space="preserve">  265 Franklin St, Melbourne VIC 300</t>
     </r>
-  </si>
-  <si>
-    <t>2017-06-17일 주문</t>
-  </si>
-  <si>
-    <t>0400 098 009:두이엄마</t>
-  </si>
-  <si>
-    <t>0423 391 661</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0430 570 255</t>
-  </si>
-  <si>
-    <t>Min Kim</t>
-  </si>
-  <si>
-    <t>미멜에 라일락(0452 452 844)</t>
-  </si>
-  <si>
-    <t>선영</t>
-  </si>
-  <si>
-    <t>유원공주</t>
-  </si>
-  <si>
-    <t>조엘(0433 371 655)</t>
-  </si>
-  <si>
-    <t>Soyoung(0450 505 214)</t>
-  </si>
-  <si>
-    <t>은주</t>
-  </si>
-  <si>
-    <t>** 배달:3/135 High St Doncaster VIC 3108</t>
-  </si>
-  <si>
-    <t>** 배달:163 City Rd Southbank VIC 3006</t>
-  </si>
-  <si>
-    <t>김영아</t>
-  </si>
-  <si>
-    <t>Young Su</t>
-  </si>
-  <si>
-    <t>** 배달 : South Morang</t>
-  </si>
-  <si>
-    <t>** 배달:8 Callan Ct, Mill Park VIC 3082</t>
-  </si>
-  <si>
-    <t>박미용1</t>
-  </si>
-  <si>
-    <t>박미용2</t>
-  </si>
-  <si>
-    <t>박미용3</t>
-  </si>
-  <si>
-    <t>2017-06-17일 개인별 주문내역</t>
   </si>
 </sst>
 </file>
@@ -562,6 +562,9 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,9 +581,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,12 +875,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -904,10 +904,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="17">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="7">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -932,10 +932,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="17">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -946,10 +946,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="17">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -960,10 +960,10 @@
         <v>1.5</v>
       </c>
       <c r="C7" s="17">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -974,10 +974,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -988,10 +988,10 @@
         <v>1.5</v>
       </c>
       <c r="C9" s="17">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>55.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1002,10 +1002,10 @@
         <v>1.5</v>
       </c>
       <c r="C10" s="17">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>55.5</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1016,45 +1016,45 @@
         <v>2</v>
       </c>
       <c r="C11" s="18">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D11" s="8">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="C12" s="22" t="str">
         <f>SUM(C3:C11) &amp; "개"</f>
-        <v>366개</v>
+        <v>229개</v>
       </c>
       <c r="D12" s="4">
         <f>SUM(D3:D11)</f>
-        <v>588</v>
+        <v>387.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="34"/>
+      <c r="A14" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1075,7 +1075,7 @@
   </sheetPr>
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1094,19 +1094,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="A1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -1122,7 +1122,7 @@
       <c r="D3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="30">
         <v>2</v>
       </c>
       <c r="G3" s="9">
@@ -1137,7 +1137,7 @@
       <c r="J3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="30">
         <v>2</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>8</v>
@@ -1190,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>9</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>11</v>
@@ -1222,7 +1222,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>6</v>
@@ -1243,7 +1243,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>7</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>12</v>
@@ -1295,7 +1295,7 @@
       <c r="D11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="30">
         <v>1</v>
       </c>
       <c r="G11" s="9">
@@ -1310,7 +1310,7 @@
       <c r="J11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="30">
         <v>1</v>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>5</v>
@@ -1363,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>5</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>6</v>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>8</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>7</v>
@@ -1427,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>9</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>10</v>
@@ -1459,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>11</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>11</v>
@@ -1491,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>12</v>
@@ -1512,7 +1512,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K18" s="12">
         <f>SUM(K13:K17)</f>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
       <c r="D20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="30">
         <v>2</v>
       </c>
       <c r="G20" s="9">
@@ -1552,7 +1552,7 @@
       <c r="J20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="30">
         <v>1</v>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>8</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>9</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>10</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>12</v>
@@ -1701,7 +1701,7 @@
         <v>7.5</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K25" s="12">
         <f>SUM(K22:K24)</f>
@@ -1728,7 +1728,7 @@
       <c r="D28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="30">
         <v>3</v>
       </c>
       <c r="G28" s="9">
@@ -1743,7 +1743,7 @@
       <c r="J28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="30">
         <v>2</v>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>6</v>
@@ -1796,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>5</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>7</v>
@@ -1828,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>6</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>8</v>
@@ -1860,7 +1860,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>7</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>9</v>
@@ -1892,7 +1892,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>8</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>11</v>
@@ -1924,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>11</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>12</v>
@@ -1956,7 +1956,7 @@
         <v>6</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>12</v>
@@ -1977,7 +1977,7 @@
         <v>52</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K36" s="12">
         <f>SUM(K30:K35)</f>
@@ -1998,7 +1998,7 @@
       <c r="D38" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="30">
         <v>3</v>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>5</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>7</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>8</v>
@@ -2076,7 +2076,7 @@
         <v>35</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2091,7 @@
       <c r="D46" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="30">
         <v>9</v>
       </c>
     </row>
@@ -2123,13 +2123,13 @@
       <c r="J47" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>5</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>6</v>
@@ -2176,7 +2176,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>6</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>7</v>
@@ -2208,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>7</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>8</v>
@@ -2240,7 +2240,7 @@
         <v>6</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>8</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>9</v>
@@ -2272,7 +2272,7 @@
         <v>25.5</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>10</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>10</v>
@@ -2304,7 +2304,7 @@
         <v>8</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>13</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>11</v>
@@ -2336,7 +2336,7 @@
         <v>16.5</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K54" s="12">
         <f>SUM(K49:K53)</f>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>12</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>13</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E57" s="12">
         <f>SUM(E48:E56)</f>
@@ -2400,7 +2400,7 @@
       <c r="D60" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="36">
+      <c r="E60" s="30">
         <v>2</v>
       </c>
       <c r="G60" s="9">
@@ -2415,7 +2415,7 @@
       <c r="J60" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K60" s="36">
+      <c r="K60" s="30">
         <v>2</v>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>5</v>
@@ -2468,7 +2468,7 @@
         <v>8</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>8</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>6</v>
@@ -2500,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>10</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>10</v>
@@ -2532,7 +2532,7 @@
         <v>8</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>13</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>11</v>
@@ -2564,7 +2564,7 @@
         <v>6</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K65" s="12">
         <f>SUM(K62:K64)</f>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>12</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E67" s="12">
         <f>SUM(E62:E66)</f>
@@ -2611,7 +2611,7 @@
       <c r="D70" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="36">
+      <c r="E70" s="30">
         <v>2</v>
       </c>
       <c r="G70" s="9">
@@ -2626,7 +2626,7 @@
       <c r="J70" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K70" s="36">
+      <c r="K70" s="30">
         <v>1</v>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>6</v>
@@ -2679,7 +2679,7 @@
         <v>8</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>5</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>8</v>
@@ -2711,7 +2711,7 @@
         <v>6</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>8</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>9</v>
@@ -2743,7 +2743,7 @@
         <v>6</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>9</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>13</v>
@@ -2775,7 +2775,7 @@
         <v>8</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>11</v>
@@ -2799,7 +2799,7 @@
         <v>28</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>13</v>
@@ -2834,7 +2834,7 @@
       <c r="D79" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="36">
+      <c r="E79" s="30">
         <v>2</v>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>5</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>8</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>11</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>13</v>
